--- a/data/pca/factorExposure/factorExposure_2016-05-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.009611469690944313</v>
+        <v>0.0127095777860654</v>
       </c>
       <c r="C2">
-        <v>-0.05593515981156368</v>
+        <v>0.0392959118604683</v>
       </c>
       <c r="D2">
-        <v>-0.04009711663253145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05373984917446067</v>
+      </c>
+      <c r="E2">
+        <v>0.08787254801506397</v>
+      </c>
+      <c r="F2">
+        <v>-0.08570659120877153</v>
+      </c>
+      <c r="G2">
+        <v>-0.006357289173206527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04049386239963693</v>
+        <v>0.02559642701340415</v>
       </c>
       <c r="C3">
-        <v>-0.1174745678718186</v>
+        <v>0.06736988918041187</v>
       </c>
       <c r="D3">
-        <v>-0.08869422934429859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07298270692604246</v>
+      </c>
+      <c r="E3">
+        <v>0.06716180610297773</v>
+      </c>
+      <c r="F3">
+        <v>0.02478432567099161</v>
+      </c>
+      <c r="G3">
+        <v>-0.04081017619668087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.058961569229753</v>
+        <v>0.05771503188082932</v>
       </c>
       <c r="C4">
-        <v>-0.06208420275104195</v>
+        <v>0.06456633060926956</v>
       </c>
       <c r="D4">
-        <v>-0.0265938561242525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.04863970624315593</v>
+      </c>
+      <c r="E4">
+        <v>0.08517764471072931</v>
+      </c>
+      <c r="F4">
+        <v>-0.06009321578766334</v>
+      </c>
+      <c r="G4">
+        <v>-0.07948535292055994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03979522518500952</v>
+        <v>0.03523492614627166</v>
       </c>
       <c r="C6">
-        <v>-0.03615496596575046</v>
+        <v>0.02807583962249442</v>
       </c>
       <c r="D6">
-        <v>-0.03111294619099737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0577816616714394</v>
+      </c>
+      <c r="E6">
+        <v>0.08892078495933001</v>
+      </c>
+      <c r="F6">
+        <v>-0.04305917494291688</v>
+      </c>
+      <c r="G6">
+        <v>-0.06175055619225354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02154053345045042</v>
+        <v>0.01737660710168498</v>
       </c>
       <c r="C7">
-        <v>-0.04692610147674504</v>
+        <v>0.03970800401472439</v>
       </c>
       <c r="D7">
-        <v>0.01049878397920515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03123924110831567</v>
+      </c>
+      <c r="E7">
+        <v>0.06149336618384437</v>
+      </c>
+      <c r="F7">
+        <v>-0.09023054814973165</v>
+      </c>
+      <c r="G7">
+        <v>-0.07295064207842883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005588485083789983</v>
+        <v>0.00313045206517744</v>
       </c>
       <c r="C8">
-        <v>-0.03603951438538253</v>
+        <v>0.03244577284802422</v>
       </c>
       <c r="D8">
-        <v>-0.02573015442756092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02961439500518259</v>
+      </c>
+      <c r="E8">
+        <v>0.05851626263830269</v>
+      </c>
+      <c r="F8">
+        <v>-0.02743499438856299</v>
+      </c>
+      <c r="G8">
+        <v>-0.03250229708478454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03330974022470705</v>
+        <v>0.03698190938099789</v>
       </c>
       <c r="C9">
-        <v>-0.04882103290247022</v>
+        <v>0.05182884656132321</v>
       </c>
       <c r="D9">
-        <v>-0.01105388865437171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03474666059454469</v>
+      </c>
+      <c r="E9">
+        <v>0.07153420198108155</v>
+      </c>
+      <c r="F9">
+        <v>-0.07057954691437097</v>
+      </c>
+      <c r="G9">
+        <v>-0.06992214509353575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0802058935756251</v>
+        <v>0.103722803393832</v>
       </c>
       <c r="C10">
-        <v>0.1878862443806997</v>
+        <v>-0.1957126032866551</v>
       </c>
       <c r="D10">
-        <v>0.01021707169549906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01445427800578617</v>
+      </c>
+      <c r="E10">
+        <v>0.03899051751827609</v>
+      </c>
+      <c r="F10">
+        <v>-0.02362521883900982</v>
+      </c>
+      <c r="G10">
+        <v>-0.02732164536666623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04103462733678282</v>
+        <v>0.0361071022038438</v>
       </c>
       <c r="C11">
-        <v>-0.05232981449014473</v>
+        <v>0.0485899460957963</v>
       </c>
       <c r="D11">
-        <v>-0.01064141975986999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02961059250001116</v>
+      </c>
+      <c r="E11">
+        <v>0.0249746219132695</v>
+      </c>
+      <c r="F11">
+        <v>-0.0543954407490543</v>
+      </c>
+      <c r="G11">
+        <v>-0.05500224460199239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04294087286687989</v>
+        <v>0.0381099038137187</v>
       </c>
       <c r="C12">
-        <v>-0.04809306321592318</v>
+        <v>0.04614279228330898</v>
       </c>
       <c r="D12">
-        <v>-0.001357503699827327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02408877126266662</v>
+      </c>
+      <c r="E12">
+        <v>0.03284259410809349</v>
+      </c>
+      <c r="F12">
+        <v>-0.05626096032549183</v>
+      </c>
+      <c r="G12">
+        <v>-0.05168494922181183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01381655217183543</v>
+        <v>0.01082321358061311</v>
       </c>
       <c r="C13">
-        <v>-0.05378539882208367</v>
+        <v>0.0422469298347568</v>
       </c>
       <c r="D13">
-        <v>-0.00599649899787961</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04129530467213617</v>
+      </c>
+      <c r="E13">
+        <v>0.09617723500617015</v>
+      </c>
+      <c r="F13">
+        <v>-0.07890221358340414</v>
+      </c>
+      <c r="G13">
+        <v>-0.07808991727361331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007391897970817199</v>
+        <v>0.004118779305755512</v>
       </c>
       <c r="C14">
-        <v>-0.04237321577562184</v>
+        <v>0.03366611901984442</v>
       </c>
       <c r="D14">
-        <v>0.01105679313683076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02181689869184467</v>
+      </c>
+      <c r="E14">
+        <v>0.04965648491087857</v>
+      </c>
+      <c r="F14">
+        <v>-0.09027577263652518</v>
+      </c>
+      <c r="G14">
+        <v>-0.05749601850730799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002133232885921561</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005376580496474628</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007017463399210694</v>
+      </c>
+      <c r="E15">
+        <v>0.004575949515644216</v>
+      </c>
+      <c r="F15">
+        <v>-0.006414896134456159</v>
+      </c>
+      <c r="G15">
+        <v>-0.004695499653091016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0378680943105183</v>
+        <v>0.03392119668090995</v>
       </c>
       <c r="C16">
-        <v>-0.05020359023362763</v>
+        <v>0.04533879039790588</v>
       </c>
       <c r="D16">
-        <v>-0.005020506984125532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02303605340787548</v>
+      </c>
+      <c r="E16">
+        <v>0.03977379935358708</v>
+      </c>
+      <c r="F16">
+        <v>-0.06103668565556341</v>
+      </c>
+      <c r="G16">
+        <v>-0.04114979753042961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02273803715183481</v>
+        <v>0.01685168019197088</v>
       </c>
       <c r="C19">
-        <v>-0.0619160833539903</v>
+        <v>0.04488077038598524</v>
       </c>
       <c r="D19">
-        <v>-0.08866836525799725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08760371679182603</v>
+      </c>
+      <c r="E19">
+        <v>0.1132335823559534</v>
+      </c>
+      <c r="F19">
+        <v>-0.07272689219051076</v>
+      </c>
+      <c r="G19">
+        <v>-0.02567585954373288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01606529644133697</v>
+        <v>0.01276140118119509</v>
       </c>
       <c r="C20">
-        <v>-0.04809722417179637</v>
+        <v>0.03928010744888151</v>
       </c>
       <c r="D20">
-        <v>-0.007141302691970781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02947990779605352</v>
+      </c>
+      <c r="E20">
+        <v>0.07632822543684874</v>
+      </c>
+      <c r="F20">
+        <v>-0.06472301164308134</v>
+      </c>
+      <c r="G20">
+        <v>-0.05304966312619786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0103526850721968</v>
+        <v>0.009318977059468965</v>
       </c>
       <c r="C21">
-        <v>-0.04995761637565921</v>
+        <v>0.04117900082540487</v>
       </c>
       <c r="D21">
-        <v>-0.03714106886344078</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05546295300914051</v>
+      </c>
+      <c r="E21">
+        <v>0.1188901386500238</v>
+      </c>
+      <c r="F21">
+        <v>-0.103067481624104</v>
+      </c>
+      <c r="G21">
+        <v>-0.07945892685315825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001334578494040863</v>
+        <v>0.002371927175742392</v>
       </c>
       <c r="C22">
-        <v>-0.0009071122457928353</v>
+        <v>0.02681354612057782</v>
       </c>
       <c r="D22">
-        <v>-0.003143662223287297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04174525119789758</v>
+      </c>
+      <c r="E22">
+        <v>0.04186110225798322</v>
+      </c>
+      <c r="F22">
+        <v>0.001974060149680087</v>
+      </c>
+      <c r="G22">
+        <v>-0.05225017005636283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001340240855174488</v>
+        <v>0.002450998158111976</v>
       </c>
       <c r="C23">
-        <v>-0.0009074038481413877</v>
+        <v>0.02696649097289795</v>
       </c>
       <c r="D23">
-        <v>-0.003149094909289105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04133261831845289</v>
+      </c>
+      <c r="E23">
+        <v>0.04210854146056213</v>
+      </c>
+      <c r="F23">
+        <v>0.002239532263825576</v>
+      </c>
+      <c r="G23">
+        <v>-0.05230748198986001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03515754505722855</v>
+        <v>0.03413525892067642</v>
       </c>
       <c r="C24">
-        <v>-0.0508767835562288</v>
+        <v>0.05261201455792868</v>
       </c>
       <c r="D24">
-        <v>-0.006369980686521199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02276252280068162</v>
+      </c>
+      <c r="E24">
+        <v>0.040805774837638</v>
+      </c>
+      <c r="F24">
+        <v>-0.0640550666484417</v>
+      </c>
+      <c r="G24">
+        <v>-0.05209041297547749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04791474695746457</v>
+        <v>0.04335818335407467</v>
       </c>
       <c r="C25">
-        <v>-0.06175510395367518</v>
+        <v>0.05646799477916539</v>
       </c>
       <c r="D25">
-        <v>0.004480664515189308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02203963360533959</v>
+      </c>
+      <c r="E25">
+        <v>0.0305908238838351</v>
+      </c>
+      <c r="F25">
+        <v>-0.05839679859556614</v>
+      </c>
+      <c r="G25">
+        <v>-0.06752369253281718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01589526198235162</v>
+        <v>0.0146098400557874</v>
       </c>
       <c r="C26">
-        <v>-0.01798399890842663</v>
+        <v>0.01779910628713415</v>
       </c>
       <c r="D26">
-        <v>-6.80026247422358e-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02194480857033841</v>
+      </c>
+      <c r="E26">
+        <v>0.05013596255442741</v>
+      </c>
+      <c r="F26">
+        <v>-0.06590826845645788</v>
+      </c>
+      <c r="G26">
+        <v>-0.03018724851839791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09544202564843217</v>
+        <v>0.1392184064065208</v>
       </c>
       <c r="C28">
-        <v>0.2454294222963537</v>
+        <v>-0.250890702159152</v>
       </c>
       <c r="D28">
-        <v>0.007869884468743201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02830145731111905</v>
+      </c>
+      <c r="E28">
+        <v>0.05492327359253434</v>
+      </c>
+      <c r="F28">
+        <v>-0.03457686031982288</v>
+      </c>
+      <c r="G28">
+        <v>-0.0474570535966655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006438948642905173</v>
+        <v>0.004921994760739698</v>
       </c>
       <c r="C29">
-        <v>-0.03410415314085536</v>
+        <v>0.02980316232329359</v>
       </c>
       <c r="D29">
-        <v>0.01610629120218608</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01539459970660548</v>
+      </c>
+      <c r="E29">
+        <v>0.04754907239769136</v>
+      </c>
+      <c r="F29">
+        <v>-0.07979806186611343</v>
+      </c>
+      <c r="G29">
+        <v>-0.06580580712873409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04405901421385132</v>
+        <v>0.04039315149000001</v>
       </c>
       <c r="C30">
-        <v>-0.05358984233076827</v>
+        <v>0.05670871174035404</v>
       </c>
       <c r="D30">
-        <v>-0.06766731185037299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09444537918955243</v>
+      </c>
+      <c r="E30">
+        <v>0.07859964914368124</v>
+      </c>
+      <c r="F30">
+        <v>-0.08481780056189903</v>
+      </c>
+      <c r="G30">
+        <v>-0.04262977192686494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05780399027058376</v>
+        <v>0.05668390609184796</v>
       </c>
       <c r="C31">
-        <v>-0.04536352717786656</v>
+        <v>0.0616154162130317</v>
       </c>
       <c r="D31">
-        <v>0.03524253729464383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0164291707628309</v>
+      </c>
+      <c r="E31">
+        <v>0.06542198147447394</v>
+      </c>
+      <c r="F31">
+        <v>-0.04170841521026034</v>
+      </c>
+      <c r="G31">
+        <v>-0.07986811899777298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001220514362544807</v>
+        <v>0.004531258622936306</v>
       </c>
       <c r="C32">
-        <v>-0.04294910560136666</v>
+        <v>0.03457468308990135</v>
       </c>
       <c r="D32">
-        <v>-0.04791294879186558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05161807905751772</v>
+      </c>
+      <c r="E32">
+        <v>0.05869477318138256</v>
+      </c>
+      <c r="F32">
+        <v>-0.07125460473345462</v>
+      </c>
+      <c r="G32">
+        <v>-0.03507892175350606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03081929119879904</v>
+        <v>0.02584594575349924</v>
       </c>
       <c r="C33">
-        <v>-0.05984462316527427</v>
+        <v>0.0535234656282077</v>
       </c>
       <c r="D33">
-        <v>-0.03856760530316276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06883235183731101</v>
+      </c>
+      <c r="E33">
+        <v>0.09019508957058277</v>
+      </c>
+      <c r="F33">
+        <v>-0.09097334254718889</v>
+      </c>
+      <c r="G33">
+        <v>-0.08002070659708094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04516544835821619</v>
+        <v>0.0404383073703663</v>
       </c>
       <c r="C34">
-        <v>-0.06666565678801063</v>
+        <v>0.06431031887912676</v>
       </c>
       <c r="D34">
-        <v>-0.01412127312251114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03571711707875192</v>
+      </c>
+      <c r="E34">
+        <v>0.01283369182724592</v>
+      </c>
+      <c r="F34">
+        <v>-0.06634903479000052</v>
+      </c>
+      <c r="G34">
+        <v>-0.05348853435343982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01638752642942511</v>
+        <v>0.01426934607360832</v>
       </c>
       <c r="C36">
-        <v>-0.01697326853570594</v>
+        <v>0.01352815426630737</v>
       </c>
       <c r="D36">
-        <v>0.004960931560549492</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02072945334349612</v>
+      </c>
+      <c r="E36">
+        <v>0.05796222661492512</v>
+      </c>
+      <c r="F36">
+        <v>-0.06015777371357869</v>
+      </c>
+      <c r="G36">
+        <v>-0.05086556886205616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02989317083526424</v>
+        <v>0.02318106923524326</v>
       </c>
       <c r="C38">
-        <v>-0.03042664978429272</v>
+        <v>0.02357366061322044</v>
       </c>
       <c r="D38">
-        <v>0.01700606617269568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0184482056293822</v>
+      </c>
+      <c r="E38">
+        <v>0.05000902195177737</v>
+      </c>
+      <c r="F38">
+        <v>-0.04976900814268275</v>
+      </c>
+      <c r="G38">
+        <v>-0.03453309055752416</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04562796325928625</v>
+        <v>0.03953243506618632</v>
       </c>
       <c r="C39">
-        <v>-0.06499929261935711</v>
+        <v>0.06385162471161418</v>
       </c>
       <c r="D39">
-        <v>-0.01457089217420492</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04651320599058056</v>
+      </c>
+      <c r="E39">
+        <v>0.04658913594296923</v>
+      </c>
+      <c r="F39">
+        <v>-0.08466667917353377</v>
+      </c>
+      <c r="G39">
+        <v>-0.04112375252314521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01179918356925514</v>
+        <v>0.01261278857244506</v>
       </c>
       <c r="C40">
-        <v>-0.0528244758433348</v>
+        <v>0.03793029225784035</v>
       </c>
       <c r="D40">
-        <v>-0.01034053244859132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02557048272124283</v>
+      </c>
+      <c r="E40">
+        <v>0.08289368163961364</v>
+      </c>
+      <c r="F40">
+        <v>-0.05510665867401819</v>
+      </c>
+      <c r="G40">
+        <v>-0.08932521819254161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02273949132438912</v>
+        <v>0.01931248481135588</v>
       </c>
       <c r="C41">
-        <v>-0.01407811395575942</v>
+        <v>0.01038160019477406</v>
       </c>
       <c r="D41">
-        <v>0.0004231852650657694</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01426778958037903</v>
+      </c>
+      <c r="E41">
+        <v>0.0583453524609614</v>
+      </c>
+      <c r="F41">
+        <v>-0.05528301745775035</v>
+      </c>
+      <c r="G41">
+        <v>-0.04247784853038609</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04023782565074505</v>
+        <v>0.02929432044892273</v>
       </c>
       <c r="C43">
-        <v>-0.03371163864018344</v>
+        <v>0.02472106273154128</v>
       </c>
       <c r="D43">
-        <v>-0.02553293938114775</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0408194690989817</v>
+      </c>
+      <c r="E43">
+        <v>0.07400045899253047</v>
+      </c>
+      <c r="F43">
+        <v>-0.05493844769725607</v>
+      </c>
+      <c r="G43">
+        <v>-0.06707562788720745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0129896905497384</v>
+        <v>0.01409423457213679</v>
       </c>
       <c r="C44">
-        <v>-0.06745651831530219</v>
+        <v>0.04806710808495365</v>
       </c>
       <c r="D44">
-        <v>-0.00599457821270339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0295800450684986</v>
+      </c>
+      <c r="E44">
+        <v>0.08694445829628948</v>
+      </c>
+      <c r="F44">
+        <v>-0.06791836482351546</v>
+      </c>
+      <c r="G44">
+        <v>-0.0323554385883197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007726184646364875</v>
+        <v>0.008383049468853241</v>
       </c>
       <c r="C46">
-        <v>-0.029357462000264</v>
+        <v>0.02976543376995389</v>
       </c>
       <c r="D46">
-        <v>0.01750085768677891</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009202194508146081</v>
+      </c>
+      <c r="E46">
+        <v>0.05658898600657862</v>
+      </c>
+      <c r="F46">
+        <v>-0.09199303178580241</v>
+      </c>
+      <c r="G46">
+        <v>-0.06378538022482934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08385964354027788</v>
+        <v>0.0881315536286786</v>
       </c>
       <c r="C47">
-        <v>-0.07207505203917118</v>
+        <v>0.08217331968522074</v>
       </c>
       <c r="D47">
-        <v>0.03172728476041644</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02291437913411897</v>
+      </c>
+      <c r="E47">
+        <v>0.06764542820406516</v>
+      </c>
+      <c r="F47">
+        <v>-0.04073181608066411</v>
+      </c>
+      <c r="G47">
+        <v>-0.078044942100623</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0186834411491904</v>
+        <v>0.01673650611435032</v>
       </c>
       <c r="C48">
-        <v>-0.01461983481553745</v>
+        <v>0.01608458265931574</v>
       </c>
       <c r="D48">
-        <v>0.01954756059733713</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.008581129803074955</v>
+      </c>
+      <c r="E48">
+        <v>0.06742534065931775</v>
+      </c>
+      <c r="F48">
+        <v>-0.07735626792720481</v>
+      </c>
+      <c r="G48">
+        <v>-0.05911859006712946</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08093573342127967</v>
+        <v>0.07044821134995055</v>
       </c>
       <c r="C50">
-        <v>-0.08312520403585041</v>
+        <v>0.07615210132632909</v>
       </c>
       <c r="D50">
-        <v>0.03284560848763093</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.00833627154993518</v>
+      </c>
+      <c r="E50">
+        <v>0.07455221638089325</v>
+      </c>
+      <c r="F50">
+        <v>-0.01616920895403978</v>
+      </c>
+      <c r="G50">
+        <v>-0.09436632605682102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01529547919805869</v>
+        <v>0.009535102044512694</v>
       </c>
       <c r="C51">
-        <v>-0.04964640807374987</v>
+        <v>0.03202869017817783</v>
       </c>
       <c r="D51">
-        <v>-0.03236712552041462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05075027719397094</v>
+      </c>
+      <c r="E51">
+        <v>0.04938182213976269</v>
+      </c>
+      <c r="F51">
+        <v>-0.07854173082039463</v>
+      </c>
+      <c r="G51">
+        <v>-0.03880120909788981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08373368141838175</v>
+        <v>0.09588384183597182</v>
       </c>
       <c r="C53">
-        <v>-0.07526350538763932</v>
+        <v>0.08598049472299199</v>
       </c>
       <c r="D53">
-        <v>0.05271945171250886</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05569107676270831</v>
+      </c>
+      <c r="E53">
+        <v>0.06126094337699443</v>
+      </c>
+      <c r="F53">
+        <v>-0.03690541727027292</v>
+      </c>
+      <c r="G53">
+        <v>-0.07909402969795948</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0325878278784886</v>
+        <v>0.02699358922803427</v>
       </c>
       <c r="C54">
-        <v>-0.03937997767746928</v>
+        <v>0.03357979107990434</v>
       </c>
       <c r="D54">
-        <v>0.003288114971813058</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02215289767484821</v>
+      </c>
+      <c r="E54">
+        <v>0.05600266001901606</v>
+      </c>
+      <c r="F54">
+        <v>-0.08592685176394545</v>
+      </c>
+      <c r="G54">
+        <v>-0.06506817283073181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07646488654091406</v>
+        <v>0.08675984028985277</v>
       </c>
       <c r="C55">
-        <v>-0.05630770580246554</v>
+        <v>0.0693516285507593</v>
       </c>
       <c r="D55">
-        <v>0.05832534892883503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0584308658681107</v>
+      </c>
+      <c r="E55">
+        <v>0.04290734793828413</v>
+      </c>
+      <c r="F55">
+        <v>-0.02017267128798003</v>
+      </c>
+      <c r="G55">
+        <v>-0.06019587774070401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1474248584992372</v>
+        <v>0.1494555723167008</v>
       </c>
       <c r="C56">
-        <v>-0.0922416133138258</v>
+        <v>0.1064338408883678</v>
       </c>
       <c r="D56">
-        <v>0.05153848595440801</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05513425190250764</v>
+      </c>
+      <c r="E56">
+        <v>0.04157599813898761</v>
+      </c>
+      <c r="F56">
+        <v>0.002809452000714791</v>
+      </c>
+      <c r="G56">
+        <v>-0.04134885316370102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04420779137079005</v>
+        <v>0.02686221770541327</v>
       </c>
       <c r="C58">
-        <v>-0.02415411762507789</v>
+        <v>0.02442072722823745</v>
       </c>
       <c r="D58">
-        <v>-0.6703982790721965</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3679428468146375</v>
+      </c>
+      <c r="E58">
+        <v>0.6648039257652439</v>
+      </c>
+      <c r="F58">
+        <v>0.4772565878738867</v>
+      </c>
+      <c r="G58">
+        <v>0.3390422813189826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1335534975605843</v>
+        <v>0.1462726226420837</v>
       </c>
       <c r="C59">
-        <v>0.1979807743678585</v>
+        <v>-0.1878260970395155</v>
       </c>
       <c r="D59">
-        <v>-0.0246460604893291</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02640316088297635</v>
+      </c>
+      <c r="E59">
+        <v>0.02842454311563445</v>
+      </c>
+      <c r="F59">
+        <v>-0.02635326187231861</v>
+      </c>
+      <c r="G59">
+        <v>0.0203385996933631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3082719392896549</v>
+        <v>0.2781615017133285</v>
       </c>
       <c r="C60">
-        <v>-0.1115357581407296</v>
+        <v>0.1094216474515593</v>
       </c>
       <c r="D60">
-        <v>-0.1718886442385906</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.268099528522151</v>
+      </c>
+      <c r="E60">
+        <v>-0.2361848271692122</v>
+      </c>
+      <c r="F60">
+        <v>0.076294134603598</v>
+      </c>
+      <c r="G60">
+        <v>-0.03637140190961067</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04352682799726058</v>
+        <v>0.04053571769676492</v>
       </c>
       <c r="C61">
-        <v>-0.06378057906211086</v>
+        <v>0.0605022107599339</v>
       </c>
       <c r="D61">
-        <v>-0.009800526737148558</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03839244198446338</v>
+      </c>
+      <c r="E61">
+        <v>0.0494599871844216</v>
+      </c>
+      <c r="F61">
+        <v>-0.066151453885145</v>
+      </c>
+      <c r="G61">
+        <v>-0.05887274175334489</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01607332700104156</v>
+        <v>0.01496400523452042</v>
       </c>
       <c r="C63">
-        <v>-0.03381151089814864</v>
+        <v>0.03151105398992584</v>
       </c>
       <c r="D63">
-        <v>0.01784633441288816</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01414990184306864</v>
+      </c>
+      <c r="E63">
+        <v>0.05979043223581442</v>
+      </c>
+      <c r="F63">
+        <v>-0.05006605353474856</v>
+      </c>
+      <c r="G63">
+        <v>-0.06706998607841604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05018943588920306</v>
+        <v>0.05561861805418004</v>
       </c>
       <c r="C64">
-        <v>-0.04676456710428425</v>
+        <v>0.05715190129558877</v>
       </c>
       <c r="D64">
-        <v>0.0004933887209424973</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.00256725422056608</v>
+      </c>
+      <c r="E64">
+        <v>0.03658609687629648</v>
+      </c>
+      <c r="F64">
+        <v>-0.07069466195807744</v>
+      </c>
+      <c r="G64">
+        <v>-0.05158712253031942</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08203973325396378</v>
+        <v>0.06621862684162769</v>
       </c>
       <c r="C65">
-        <v>-0.03041953695841506</v>
+        <v>0.0290478872949615</v>
       </c>
       <c r="D65">
-        <v>-0.06020766513141855</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08556189402513886</v>
+      </c>
+      <c r="E65">
+        <v>0.05820481550481819</v>
+      </c>
+      <c r="F65">
+        <v>-0.008718937708207126</v>
+      </c>
+      <c r="G65">
+        <v>-0.018830049730566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0611151907938925</v>
+        <v>0.05126054619980525</v>
       </c>
       <c r="C66">
-        <v>-0.08884283369007911</v>
+        <v>0.08176917056909037</v>
       </c>
       <c r="D66">
-        <v>-0.03528681794602002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07143681572220466</v>
+      </c>
+      <c r="E66">
+        <v>0.05521911583183013</v>
+      </c>
+      <c r="F66">
+        <v>-0.08015484050992777</v>
+      </c>
+      <c r="G66">
+        <v>-0.05769997586578962</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05185200551391628</v>
+        <v>0.04501523036791508</v>
       </c>
       <c r="C67">
-        <v>-0.03139330706272427</v>
+        <v>0.02850078835261251</v>
       </c>
       <c r="D67">
-        <v>0.02371809064768646</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003393421695918965</v>
+      </c>
+      <c r="E67">
+        <v>0.02650565285650994</v>
+      </c>
+      <c r="F67">
+        <v>-0.03647543515026302</v>
+      </c>
+      <c r="G67">
+        <v>-0.03009662990357636</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.131988534128626</v>
+        <v>0.1535637228862533</v>
       </c>
       <c r="C68">
-        <v>0.2794385446406729</v>
+        <v>-0.2432484450879097</v>
       </c>
       <c r="D68">
-        <v>0.005923063063169028</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01570781776843799</v>
+      </c>
+      <c r="E68">
+        <v>0.0379752945058039</v>
+      </c>
+      <c r="F68">
+        <v>-0.007119549330464537</v>
+      </c>
+      <c r="G68">
+        <v>-0.03013640596351057</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09112153654123532</v>
+        <v>0.0868137458433639</v>
       </c>
       <c r="C69">
-        <v>-0.07198194649632367</v>
+        <v>0.08964408749063431</v>
       </c>
       <c r="D69">
-        <v>0.04418957425774101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01355109695429525</v>
+      </c>
+      <c r="E69">
+        <v>0.05414824732794343</v>
+      </c>
+      <c r="F69">
+        <v>-0.06747908438319943</v>
+      </c>
+      <c r="G69">
+        <v>-0.07154677888662551</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1204491556341542</v>
+        <v>0.1460075236493542</v>
       </c>
       <c r="C71">
-        <v>0.2533450676153597</v>
+        <v>-0.2394718677985856</v>
       </c>
       <c r="D71">
-        <v>-0.01463175879504233</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0008126943935994808</v>
+      </c>
+      <c r="E71">
+        <v>0.05883722674598098</v>
+      </c>
+      <c r="F71">
+        <v>-0.0246880834702183</v>
+      </c>
+      <c r="G71">
+        <v>-0.05873531441118677</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09226489034949246</v>
+        <v>0.1000713839617577</v>
       </c>
       <c r="C72">
-        <v>-0.05577238690747321</v>
+        <v>0.05840623507604437</v>
       </c>
       <c r="D72">
-        <v>-0.002682985699275841</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02644353433484635</v>
+      </c>
+      <c r="E72">
+        <v>0.02697319624658611</v>
+      </c>
+      <c r="F72">
+        <v>-0.04236467709662342</v>
+      </c>
+      <c r="G72">
+        <v>-0.06520542804609822</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4037763454091242</v>
+        <v>0.3417896172430779</v>
       </c>
       <c r="C73">
-        <v>-0.05066655306806114</v>
+        <v>0.07163929944368065</v>
       </c>
       <c r="D73">
-        <v>-0.4041160419212973</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5254629877062093</v>
+      </c>
+      <c r="E73">
+        <v>-0.4339310189894441</v>
+      </c>
+      <c r="F73">
+        <v>0.2275573559968085</v>
+      </c>
+      <c r="G73">
+        <v>-0.02288806952615221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1044130382877444</v>
+        <v>0.1093091029262619</v>
       </c>
       <c r="C74">
-        <v>-0.09503577590149617</v>
+        <v>0.09539930382004314</v>
       </c>
       <c r="D74">
-        <v>0.03403685611021128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04459032822258532</v>
+      </c>
+      <c r="E74">
+        <v>0.06122264097898283</v>
+      </c>
+      <c r="F74">
+        <v>0.004534066259185411</v>
+      </c>
+      <c r="G74">
+        <v>-0.06743820156270262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2525950911789033</v>
+        <v>0.2570325862434742</v>
       </c>
       <c r="C75">
-        <v>-0.1044721522623417</v>
+        <v>0.1320950827541179</v>
       </c>
       <c r="D75">
-        <v>0.1247792676405308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1491344853297578</v>
+      </c>
+      <c r="E75">
+        <v>0.04273962548469031</v>
+      </c>
+      <c r="F75">
+        <v>0.04523395274557403</v>
+      </c>
+      <c r="G75">
+        <v>-0.008597209967396919</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1136517987839904</v>
+        <v>0.1275742119339037</v>
       </c>
       <c r="C76">
-        <v>-0.08102052242214761</v>
+        <v>0.09375125903419525</v>
       </c>
       <c r="D76">
-        <v>0.06335382743779172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07538050534265983</v>
+      </c>
+      <c r="E76">
+        <v>0.06733806782802647</v>
+      </c>
+      <c r="F76">
+        <v>-0.01813158485053014</v>
+      </c>
+      <c r="G76">
+        <v>-0.05590056679422239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07644436296716783</v>
+        <v>0.06257009015521865</v>
       </c>
       <c r="C77">
-        <v>-0.05351262275962691</v>
+        <v>0.06340619307331856</v>
       </c>
       <c r="D77">
-        <v>-0.04920118019396194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04950542307254856</v>
+      </c>
+      <c r="E77">
+        <v>0.09966361004351067</v>
+      </c>
+      <c r="F77">
+        <v>-0.1625263363426646</v>
+      </c>
+      <c r="G77">
+        <v>0.1042056103527168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04810693308501542</v>
+        <v>0.04493617135246666</v>
       </c>
       <c r="C78">
-        <v>-0.0467820263778916</v>
+        <v>0.05638364333330496</v>
       </c>
       <c r="D78">
-        <v>-0.01953559846720511</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05698843219214995</v>
+      </c>
+      <c r="E78">
+        <v>0.05582025858202519</v>
+      </c>
+      <c r="F78">
+        <v>-0.07156591016669625</v>
+      </c>
+      <c r="G78">
+        <v>-0.05136910423281945</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02966021665654427</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04583515488501726</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07532918514175803</v>
+      </c>
+      <c r="E79">
+        <v>0.05908806853835518</v>
+      </c>
+      <c r="F79">
+        <v>0.01382232187850625</v>
+      </c>
+      <c r="G79">
+        <v>-0.06076109279566869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03914016847832827</v>
+        <v>0.03078947506607449</v>
       </c>
       <c r="C80">
-        <v>-0.0447628822573602</v>
+        <v>0.04804594975017633</v>
       </c>
       <c r="D80">
-        <v>-0.02562063289793712</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03606670886729441</v>
+      </c>
+      <c r="E80">
+        <v>0.01863596613206071</v>
+      </c>
+      <c r="F80">
+        <v>-0.04616064246008887</v>
+      </c>
+      <c r="G80">
+        <v>0.02240259791910805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1384155119748658</v>
+        <v>0.1388214231990134</v>
       </c>
       <c r="C81">
-        <v>-0.07632852968783549</v>
+        <v>0.09453972307597726</v>
       </c>
       <c r="D81">
-        <v>0.08998755094452239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1191378902315318</v>
+      </c>
+      <c r="E81">
+        <v>0.06789539528923554</v>
+      </c>
+      <c r="F81">
+        <v>0.02868882761173639</v>
+      </c>
+      <c r="G81">
+        <v>-0.01979192019057171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1755067354567376</v>
+        <v>0.2126430944417096</v>
       </c>
       <c r="C82">
-        <v>-0.0941577440027767</v>
+        <v>0.1573771484287822</v>
       </c>
       <c r="D82">
-        <v>0.1828071677729782</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2456987466732113</v>
+      </c>
+      <c r="E82">
+        <v>-0.02424091287368375</v>
+      </c>
+      <c r="F82">
+        <v>-0.05119176552278829</v>
+      </c>
+      <c r="G82">
+        <v>-0.04918739835040386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.0391859374656357</v>
+        <v>0.02687631024060331</v>
       </c>
       <c r="C83">
-        <v>-0.03183296339143347</v>
+        <v>0.0435536147926484</v>
       </c>
       <c r="D83">
-        <v>-0.03511665193046935</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02835501804755095</v>
+      </c>
+      <c r="E83">
+        <v>0.02691082518288898</v>
+      </c>
+      <c r="F83">
+        <v>-0.04817372402681856</v>
+      </c>
+      <c r="G83">
+        <v>0.001181277677624202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004307819050871488</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001310692788667376</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001963495407296284</v>
+      </c>
+      <c r="E84">
+        <v>0.002178815683739321</v>
+      </c>
+      <c r="F84">
+        <v>0.0007127687051898791</v>
+      </c>
+      <c r="G84">
+        <v>-0.001960017766781822</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2203202578472701</v>
+        <v>0.2033125065897348</v>
       </c>
       <c r="C85">
-        <v>-0.1021425533111878</v>
+        <v>0.1165379483373299</v>
       </c>
       <c r="D85">
-        <v>0.1502864846649848</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1142830914723388</v>
+      </c>
+      <c r="E85">
+        <v>-0.02544361199609384</v>
+      </c>
+      <c r="F85">
+        <v>0.0929486853307948</v>
+      </c>
+      <c r="G85">
+        <v>-0.05293548276539162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.00664791665447205</v>
+        <v>0.009151953731024497</v>
       </c>
       <c r="C86">
-        <v>-0.02778234856716217</v>
+        <v>0.02018872013279085</v>
       </c>
       <c r="D86">
-        <v>-0.04232323733935542</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05566935287128572</v>
+      </c>
+      <c r="E86">
+        <v>0.07630463045931218</v>
+      </c>
+      <c r="F86">
+        <v>-0.1096624132350585</v>
+      </c>
+      <c r="G86">
+        <v>-0.05971262783212251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02378081593767446</v>
+        <v>0.02425260450738118</v>
       </c>
       <c r="C87">
-        <v>-0.005115126092840218</v>
+        <v>0.01250456533401212</v>
       </c>
       <c r="D87">
-        <v>-0.08050058123599099</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07640408296487684</v>
+      </c>
+      <c r="E87">
+        <v>0.1282597625845131</v>
+      </c>
+      <c r="F87">
+        <v>-0.0809716051312989</v>
+      </c>
+      <c r="G87">
+        <v>-0.001824506471535235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1049236170069573</v>
+        <v>0.09100376061829976</v>
       </c>
       <c r="C88">
-        <v>-0.07595041596848139</v>
+        <v>0.06395671061142076</v>
       </c>
       <c r="D88">
-        <v>0.02909906998063947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.003105138167630584</v>
+      </c>
+      <c r="E88">
+        <v>0.04901792133520972</v>
+      </c>
+      <c r="F88">
+        <v>-0.07539000855611379</v>
+      </c>
+      <c r="G88">
+        <v>-0.02537346976733966</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1883797652910419</v>
+        <v>0.2230007005276584</v>
       </c>
       <c r="C89">
-        <v>0.3733640402856993</v>
+        <v>-0.3778626115612914</v>
       </c>
       <c r="D89">
-        <v>0.03139964807270575</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0281006657923813</v>
+      </c>
+      <c r="E89">
+        <v>0.06649367927507605</v>
+      </c>
+      <c r="F89">
+        <v>-0.09926358540545768</v>
+      </c>
+      <c r="G89">
+        <v>0.02414992529571193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1797299246174772</v>
+        <v>0.2016707667394066</v>
       </c>
       <c r="C90">
-        <v>0.3306840902134653</v>
+        <v>-0.3076917072235818</v>
       </c>
       <c r="D90">
-        <v>0.0373557821291353</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02744635186945847</v>
+      </c>
+      <c r="E90">
+        <v>0.06478210770489436</v>
+      </c>
+      <c r="F90">
+        <v>-0.03854903612592666</v>
+      </c>
+      <c r="G90">
+        <v>-0.008080621974604737</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1883678313246882</v>
+        <v>0.1858629095606177</v>
       </c>
       <c r="C91">
-        <v>-0.1294616429823477</v>
+        <v>0.1450840277584617</v>
       </c>
       <c r="D91">
-        <v>0.1152049893808202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.126729996886434</v>
+      </c>
+      <c r="E91">
+        <v>0.04636268037489562</v>
+      </c>
+      <c r="F91">
+        <v>0.01131124325447952</v>
+      </c>
+      <c r="G91">
+        <v>-0.02489763486159139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1649962790759018</v>
+        <v>0.1838426989876323</v>
       </c>
       <c r="C92">
-        <v>0.2859408701689919</v>
+        <v>-0.2899386365202677</v>
       </c>
       <c r="D92">
-        <v>0.03104643588431363</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02944690322572693</v>
+      </c>
+      <c r="E92">
+        <v>0.06884460667530312</v>
+      </c>
+      <c r="F92">
+        <v>-0.07260287328613504</v>
+      </c>
+      <c r="G92">
+        <v>-0.01820073338410556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2026519746415878</v>
+        <v>0.2245674851178132</v>
       </c>
       <c r="C93">
-        <v>0.3358362569729186</v>
+        <v>-0.3174559809432275</v>
       </c>
       <c r="D93">
-        <v>0.03697497034634348</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02202995921229005</v>
+      </c>
+      <c r="E93">
+        <v>0.04130974002501644</v>
+      </c>
+      <c r="F93">
+        <v>-0.01255529704535002</v>
+      </c>
+      <c r="G93">
+        <v>-0.03857949966408235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3324235428510886</v>
+        <v>0.3362662257806742</v>
       </c>
       <c r="C94">
-        <v>-0.1547791191548548</v>
+        <v>0.1912267802923039</v>
       </c>
       <c r="D94">
-        <v>0.3711022995295472</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4331356686421545</v>
+      </c>
+      <c r="E94">
+        <v>-0.007214486125553058</v>
+      </c>
+      <c r="F94">
+        <v>0.2320528014068798</v>
+      </c>
+      <c r="G94">
+        <v>0.4289364698827937</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.114227959201802</v>
+        <v>0.08472038568339935</v>
       </c>
       <c r="C95">
-        <v>-0.07131915465176619</v>
+        <v>0.06417587190751559</v>
       </c>
       <c r="D95">
-        <v>-0.163997611130375</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1837431249680428</v>
+      </c>
+      <c r="E95">
+        <v>-0.08821452613237273</v>
+      </c>
+      <c r="F95">
+        <v>-0.594397238069124</v>
+      </c>
+      <c r="G95">
+        <v>0.6857934545971357</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1952952450798111</v>
+        <v>0.1873317110000998</v>
       </c>
       <c r="C98">
-        <v>-0.0204534338598227</v>
+        <v>0.04641609640622783</v>
       </c>
       <c r="D98">
-        <v>-0.1410961003142764</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2022719792325109</v>
+      </c>
+      <c r="E98">
+        <v>-0.1305517128929365</v>
+      </c>
+      <c r="F98">
+        <v>0.06606045600797165</v>
+      </c>
+      <c r="G98">
+        <v>-0.08256420526337174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006223088196301309</v>
+        <v>0.004918706014938178</v>
       </c>
       <c r="C101">
-        <v>-0.034124709425097</v>
+        <v>0.02937987019755016</v>
       </c>
       <c r="D101">
-        <v>0.01584341446138491</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01526785603281724</v>
+      </c>
+      <c r="E101">
+        <v>0.04822119654347218</v>
+      </c>
+      <c r="F101">
+        <v>-0.08044612414825458</v>
+      </c>
+      <c r="G101">
+        <v>-0.06562272839584093</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1249195748182391</v>
+        <v>0.1266705433589715</v>
       </c>
       <c r="C102">
-        <v>-0.06879265091979823</v>
+        <v>0.100629603295876</v>
       </c>
       <c r="D102">
-        <v>0.04123791373159168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05174498074542399</v>
+      </c>
+      <c r="E102">
+        <v>-0.01180947086698177</v>
+      </c>
+      <c r="F102">
+        <v>-0.01915063203886279</v>
+      </c>
+      <c r="G102">
+        <v>0.0001130599015443348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
